--- a/spark/experiments/results-sql-g2.2.csv/g2.2-2t.xlsx
+++ b/spark/experiments/results-sql-g2.2.csv/g2.2-2t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2-t-2.csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.2.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="52">
   <si>
     <t>timestamp</t>
   </si>
@@ -147,13 +147,7 @@
     <t>Total time (ms)</t>
   </si>
   <si>
-    <t>mean-exp (ns)</t>
-  </si>
-  <si>
     <t>deviation-exp (ns)</t>
-  </si>
-  <si>
-    <t>mean-warmup  (ns)</t>
   </si>
   <si>
     <t>deviation-run (ns)</t>
@@ -169,6 +163,18 @@
   </si>
   <si>
     <t>should be smaller than next timestamp</t>
+  </si>
+  <si>
+    <t>percentile-exp (ns)</t>
+  </si>
+  <si>
+    <t>percentile95-exp (s)</t>
+  </si>
+  <si>
+    <t>percentile95-warmup (s)</t>
+  </si>
+  <si>
+    <t>percentile95-warmup  (ns)</t>
   </si>
 </sst>
 </file>
@@ -713,6 +719,983 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'part-00000-9009ced8-01e4-4cc4-a'!$D$2:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>107597065716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104592606597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3090156064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1586754163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97806479847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95222970017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2066570295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1393514444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95617697980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96654562745</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120584660</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1162357062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49561783815</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93771110905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1364033662</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1145864286</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97033585083</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100246690590</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1084903972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1095365444</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94930015458</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93166861254</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>860577536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1065787273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95927467779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100440840000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1336788076</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>974082534</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96877728603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48387735402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>920360272</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>724407979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>97190286256</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94631756840</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>868473424</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>849711027</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94705367158</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94808351474</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>933712386</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>762356769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1638933648"/>
+        <c:axId val="-1638924400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1638933648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1638924400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1638924400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1638933648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1242060</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -976,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,10 +1977,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -4237,11 +5220,11 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <f>AVERAGE(D41,D40,D37,D36,D33,D32,D29,D28,D25,D24,D21,D20,D17,D16,D13,D12,D9,D8,D5,D4)</f>
-        <v>1220318066.4000001</v>
+        <f>PERCENTILE((D41,D40,D37,D36,D33,D32,D29,D28,D25,D24,D21,D20,D17,D16,D13,D12),0.95)</f>
+        <v>1343599472.5</v>
       </c>
       <c r="I42">
         <f>AVERAGE(I41,I40,I37,I36,I33,I32,I29,I28,I25,I24,I21,I20,I17,I16,I13,I12,I9,I8,I5,I4)</f>
@@ -4254,7 +5237,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <f>AVEDEV(D41,D40,D37,D36,D33,D32,D29,D28,D25,D24,D21,D20,D17,D16,D13,D12,D9,D8,D5,D4)</f>
@@ -4271,11 +5254,11 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D44">
-        <f>AVERAGE(D39,D38,D35,D34,D31,D30,D27,D26,D23,D22,D19,D18,D15,D14,D11,D10,D7,D6,D3,D2)</f>
-        <v>92458548175.949997</v>
+        <f>PERCENTILE((D39,D38,D35,D34,D31,D30,D27,D26,D23,D22,D19,D18,D15,D14,D11,D10,D7,D6),0.95)</f>
+        <v>100275813001.5</v>
       </c>
       <c r="I44">
         <f>AVERAGE(I39,I38,I35,I34,I31,I30,I27,I26,I23,I22,I19,I18,I15,I14,I11,I10,I7,I6,I3,I2)</f>
@@ -4288,7 +5271,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <f>AVEDEV(D39,D38,D35,D34,D31,D30,D27,D26,D23,D22,D19,D18,D15,D14,D11,D10,D7,D6,D3,D2)</f>
@@ -4334,7 +5317,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <f>C46/1000/60</f>
@@ -4355,7 +5338,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <f>C47*60</f>
@@ -4364,10 +5347,29 @@
       <c r="D48">
         <f>D47*60</f>
         <v>1872.814968078</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <f>D42/1000/1000/1000</f>
+        <v>1.3435994724999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <f>D44/1000/1000/1000</f>
+        <v>100.2758130015</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>